--- a/battleworld/Excel/LandRun_地块运动表.xlsx
+++ b/battleworld/Excel/LandRun_地块运动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -758,12 +758,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1092,7 +1095,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -1170,14 +1173,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" ht="38.25" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1228,7 +1231,7 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="1">
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:11">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1263,7 +1266,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="1">
